--- a/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
+++ b/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\SYSoCCtaSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\endo-learn\SYSoCCtaSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36812C60-10F4-471D-A279-B5D2C888C3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24420" windowHeight="11880"/>
+    <workbookView xWindow="2145" yWindow="285" windowWidth="22170" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="SYSoCCtaSC" sheetId="2" r:id="rId3"/>
+    <sheet name="SYSoCCtaSC-electricity" sheetId="2" r:id="rId3"/>
+    <sheet name="SYSoCCtaSC-buildings" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Sources:</t>
   </si>
@@ -269,12 +279,18 @@
   </si>
   <si>
     <t>Soft cost share (dimensionless)</t>
+  </si>
+  <si>
+    <t>distributed solar</t>
+  </si>
+  <si>
+    <t>SYSoCCtaSC Share of Distributed Solar and Retrofitting Costs that is Labor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -648,169 +664,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.3984375" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="11">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="11">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="12" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B20" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -818,26 +839,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1328125" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19.1328125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -848,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -859,7 +880,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -870,7 +891,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -881,7 +902,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -892,7 +913,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -903,7 +924,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -914,7 +935,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -925,7 +946,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -936,7 +957,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -947,7 +968,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -958,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -969,7 +990,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -980,30 +1001,30 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <f>SUM(C12:C15,C7:C10)</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1040,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1048,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1035,7 +1056,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +1064,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +1072,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1059,7 +1080,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1067,10 +1088,10 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1086,16 +1107,16 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <f>B35*SUM(B29:B32,B27)</f>
         <v>0.29399999999999998</v>
@@ -1104,15 +1125,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1128,7 +1149,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1136,7 +1157,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1144,7 +1165,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1173,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1160,7 +1181,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1168,7 +1189,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1184,7 +1205,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1192,13 +1213,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <f>B52*SUM(B46:B49,B44)</f>
         <v>0.20299999999999999</v>
@@ -1207,25 +1228,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <f>AVERAGE(A38,A55)</f>
         <v>0.2485</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1254,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -1241,7 +1262,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -1249,7 +1270,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1257,27 +1278,27 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <f>B66</f>
         <v>0.41</v>
@@ -1289,28 +1310,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1318,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1334,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1342,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -1351,7 +1370,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1360,7 +1379,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1368,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1376,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1384,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1400,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1408,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -1417,7 +1436,7 @@
         <v>0.2485</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1426,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -1435,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>79</v>
       </c>
@@ -1443,6 +1462,76 @@
         <f>B9</f>
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4726773-744F-402D-A81A-2320CC12EE84}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="13">
+        <f>AVERAGE(Data!B64:B65)</f>
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
+++ b/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\endo-learn\SYSoCCtaSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-brazil\InputData\endo-learn\SYSoCCtaSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36812C60-10F4-471D-A279-B5D2C888C3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="285" windowWidth="22170" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="285" windowWidth="22170" windowHeight="16110"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
-    <sheet name="SYSoCCtaSC-electricity" sheetId="2" r:id="rId3"/>
-    <sheet name="SYSoCCtaSC-buildings" sheetId="5" r:id="rId4"/>
+    <sheet name="Solar PV" sheetId="6" r:id="rId3"/>
+    <sheet name="SYSoCCtaSC-electricity" sheetId="2" r:id="rId4"/>
+    <sheet name="SYSoCCtaSC-buildings" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>Sources:</t>
   </si>
@@ -164,18 +164,9 @@
     <t>R&amp;D progress, so we use the utility-scale figure.</t>
   </si>
   <si>
-    <t>Page viii, Figure ES-2</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy17osti/68925.pdf</t>
-  </si>
-  <si>
     <t>NREL</t>
   </si>
   <si>
-    <t>U.S. Solar Photovoltaic System Cost Benchmark: Q1 2017</t>
-  </si>
-  <si>
     <t>Page 13, Figure 2-8</t>
   </si>
   <si>
@@ -285,12 +276,33 @@
   </si>
   <si>
     <t>SYSoCCtaSC Share of Distributed Solar and Retrofitting Costs that is Labor</t>
+  </si>
+  <si>
+    <t>Soft cost pixels</t>
+  </si>
+  <si>
+    <t>Total pixels</t>
+  </si>
+  <si>
+    <t>Share of soft costs</t>
+  </si>
+  <si>
+    <t>IRENA</t>
+  </si>
+  <si>
+    <t>Renewable Power Generation Costs in 2019</t>
+  </si>
+  <si>
+    <t>https://www.irena.org/-/media/Files/IRENA/Agency/Publication/2020/Jun/IRENA_Power_Generation_Costs_2019.pdf</t>
+  </si>
+  <si>
+    <t>Figure 3.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -400,6 +412,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189667</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="180975"/>
+          <a:ext cx="6666667" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,27 +719,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,146 +749,146 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="11">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B21" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -839,26 +896,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.1328125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -869,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -880,7 +937,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -891,7 +948,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -902,7 +959,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -913,7 +970,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -924,7 +981,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -935,7 +992,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -946,7 +1003,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -957,7 +1014,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -968,7 +1025,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -979,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -990,7 +1047,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1001,30 +1058,30 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="10">
         <f>SUM(C12:C15,C7:C10)</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1040,7 +1097,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1105,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1056,7 +1113,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1121,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1072,7 +1129,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1080,7 +1137,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1088,10 +1145,10 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1099,7 +1156,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1107,16 +1164,16 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <f>B35*SUM(B29:B32,B27)</f>
         <v>0.29399999999999998</v>
@@ -1125,15 +1182,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -1141,7 +1198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1206,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1214,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1222,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -1173,7 +1230,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1238,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1189,7 +1246,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1254,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1205,7 +1262,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1213,13 +1270,13 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="9">
         <f>B52*SUM(B46:B49,B44)</f>
         <v>0.20299999999999999</v>
@@ -1228,25 +1285,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="10">
         <f>AVERAGE(A38,A55)</f>
         <v>0.2485</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
@@ -1254,7 +1311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -1262,7 +1319,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1327,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -1278,27 +1335,27 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="8">
         <f>B66</f>
         <v>0.41</v>
@@ -1310,153 +1367,199 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="L2:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="12:13" x14ac:dyDescent="0.45">
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="12:13" x14ac:dyDescent="0.45">
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="12:13" x14ac:dyDescent="0.45">
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5">
+        <f>M2/M3</f>
+        <v>0.17222222222222222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="14">
         <f>Data!A19</f>
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="14">
-        <f>Data!A73</f>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <f>'Solar PV'!M5</f>
+        <v>0.17222222222222222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" s="14">
         <f>Data!A58</f>
         <v>0.2485</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <f>B11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <f>B11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <f>B9</f>
@@ -1468,8 +1571,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4726773-744F-402D-A81A-2320CC12EE84}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1477,60 +1580,60 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B1" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="13">
         <f>AVERAGE(Data!B64:B65)</f>
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="13"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="13"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="13"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="13"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="13"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="13"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="14"/>
     </row>
   </sheetData>
